--- a/Data/EC/NIT-8300770541.xlsx
+++ b/Data/EC/NIT-8300770541.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79986EE-AA0D-42DA-BB5D-758FF19A6536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD495E52-02F5-45C9-94F1-C9FE99A188BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12FAD70D-2FEB-4986-95A6-4491C83C77F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABB6B096-ACAA-4ABC-9DB3-FB0752EB9E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,223 +71,223 @@
     <t>MARTHA GARCIA ABONDANO</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AA45FD-3B91-EDCF-B8E1-7E5D3280FD05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF86ECF-651E-031F-B8A8-3AD513FDC315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A1F1A-6E0C-46EF-91FF-CFE498199613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DDEB58-072A-4197-AE82-DE291ED98E69}">
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1230,10 +1230,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1256,7 +1256,7 @@
         <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1279,7 +1279,7 @@
         <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1302,7 +1302,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1325,7 +1325,7 @@
         <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1348,7 +1348,7 @@
         <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1371,7 +1371,7 @@
         <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1394,7 +1394,7 @@
         <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1417,7 +1417,7 @@
         <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1440,7 +1440,7 @@
         <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1463,7 +1463,7 @@
         <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1486,7 +1486,7 @@
         <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1509,7 +1509,7 @@
         <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1532,7 +1532,7 @@
         <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1555,7 +1555,7 @@
         <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1578,7 +1578,7 @@
         <v>60000</v>
       </c>
       <c r="G31" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1601,7 +1601,7 @@
         <v>60000</v>
       </c>
       <c r="G32" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1624,7 +1624,7 @@
         <v>60000</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1647,7 +1647,7 @@
         <v>60000</v>
       </c>
       <c r="G34" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1670,7 +1670,7 @@
         <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1693,7 +1693,7 @@
         <v>60000</v>
       </c>
       <c r="G36" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1716,7 +1716,7 @@
         <v>60000</v>
       </c>
       <c r="G37" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1739,7 +1739,7 @@
         <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1762,7 +1762,7 @@
         <v>60000</v>
       </c>
       <c r="G39" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1785,7 +1785,7 @@
         <v>60000</v>
       </c>
       <c r="G40" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1808,7 +1808,7 @@
         <v>60000</v>
       </c>
       <c r="G41" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1831,7 +1831,7 @@
         <v>60000</v>
       </c>
       <c r="G42" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1854,7 +1854,7 @@
         <v>60000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1877,7 +1877,7 @@
         <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1900,7 +1900,7 @@
         <v>60000</v>
       </c>
       <c r="G45" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1923,7 +1923,7 @@
         <v>60000</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1946,7 +1946,7 @@
         <v>60000</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1969,7 +1969,7 @@
         <v>60000</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1992,7 +1992,7 @@
         <v>60000</v>
       </c>
       <c r="G49" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2015,7 +2015,7 @@
         <v>60000</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2038,7 +2038,7 @@
         <v>60000</v>
       </c>
       <c r="G51" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2061,7 +2061,7 @@
         <v>60000</v>
       </c>
       <c r="G52" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2084,7 +2084,7 @@
         <v>60000</v>
       </c>
       <c r="G53" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2107,7 +2107,7 @@
         <v>60000</v>
       </c>
       <c r="G54" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2130,7 +2130,7 @@
         <v>60000</v>
       </c>
       <c r="G55" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2153,7 +2153,7 @@
         <v>60000</v>
       </c>
       <c r="G56" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2176,7 +2176,7 @@
         <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2199,7 +2199,7 @@
         <v>60000</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2222,7 +2222,7 @@
         <v>60000</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2245,7 +2245,7 @@
         <v>60000</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2268,7 +2268,7 @@
         <v>60000</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2291,7 +2291,7 @@
         <v>60000</v>
       </c>
       <c r="G62" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2314,7 +2314,7 @@
         <v>60000</v>
       </c>
       <c r="G63" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2337,7 +2337,7 @@
         <v>60000</v>
       </c>
       <c r="G64" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2360,7 +2360,7 @@
         <v>60000</v>
       </c>
       <c r="G65" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2383,7 +2383,7 @@
         <v>60000</v>
       </c>
       <c r="G66" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2406,7 +2406,7 @@
         <v>60000</v>
       </c>
       <c r="G67" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2429,7 +2429,7 @@
         <v>60000</v>
       </c>
       <c r="G68" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2452,7 +2452,7 @@
         <v>60000</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2475,7 +2475,7 @@
         <v>60000</v>
       </c>
       <c r="G70" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2498,7 +2498,7 @@
         <v>60000</v>
       </c>
       <c r="G71" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2521,7 +2521,7 @@
         <v>60000</v>
       </c>
       <c r="G72" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2544,7 +2544,7 @@
         <v>60000</v>
       </c>
       <c r="G73" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2567,7 +2567,7 @@
         <v>60000</v>
       </c>
       <c r="G74" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2590,7 +2590,7 @@
         <v>60000</v>
       </c>
       <c r="G75" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2613,7 +2613,7 @@
         <v>60000</v>
       </c>
       <c r="G76" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2636,7 +2636,7 @@
         <v>60000</v>
       </c>
       <c r="G77" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2659,7 +2659,7 @@
         <v>60000</v>
       </c>
       <c r="G78" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2682,7 +2682,7 @@
         <v>60000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2705,7 +2705,7 @@
         <v>60000</v>
       </c>
       <c r="G80" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2728,7 +2728,7 @@
         <v>60000</v>
       </c>
       <c r="G81" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2751,7 +2751,7 @@
         <v>60000</v>
       </c>
       <c r="G82" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2774,7 +2774,7 @@
         <v>60000</v>
       </c>
       <c r="G83" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2797,7 +2797,7 @@
         <v>60000</v>
       </c>
       <c r="G84" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2820,7 +2820,7 @@
         <v>60000</v>
       </c>
       <c r="G85" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2843,7 +2843,7 @@
         <v>60000</v>
       </c>
       <c r="G86" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2866,7 +2866,7 @@
         <v>60000</v>
       </c>
       <c r="G87" s="18">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2886,10 +2886,10 @@
         <v>83</v>
       </c>
       <c r="F88" s="24">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G88" s="24">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>

--- a/Data/EC/NIT-8300770541.xlsx
+++ b/Data/EC/NIT-8300770541.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E5C669-14D4-412F-8CEF-F5C240AF41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71E2C38-DD01-4D16-93A4-E67D8A6F8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60A2E645-B67A-4B22-9643-3298022EBDE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36FF19B0-8E3E-4FEE-A8A5-8CDE346E45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -401,7 +399,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -595,29 +595,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,19 +636,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,7 +707,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E13CFD9-0B11-5E99-D33B-3B3E6BF40C0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7927DB9-3C29-5F7A-CDF6-CB3E5A27B71C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA78FC-B250-4A19-A8BA-831A2EC8D7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7525D4D-9D7E-4BC4-A92C-842702F7CEAE}">
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1075,49 +1081,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1125,7 +1131,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8300770541</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>4370000</v>
       </c>
@@ -1226,18 +1232,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1249,18 +1255,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1272,18 +1278,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1295,18 +1301,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1318,18 +1324,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1341,18 +1347,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1364,18 +1370,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1387,18 +1393,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1410,18 +1416,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1433,18 +1439,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1456,18 +1462,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1479,18 +1485,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1502,18 +1508,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1525,18 +1531,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1548,18 +1554,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1571,18 +1577,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1594,18 +1600,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1617,18 +1623,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1640,18 +1646,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1663,18 +1669,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1686,18 +1692,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1709,18 +1715,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1732,18 +1738,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1755,18 +1761,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1778,18 +1784,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1801,18 +1807,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1824,18 +1830,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1847,18 +1853,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1870,18 +1876,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1893,18 +1899,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1916,18 +1922,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1939,18 +1945,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1962,18 +1968,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1985,18 +1991,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2008,18 +2014,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2031,18 +2037,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2054,18 +2060,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2077,18 +2083,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2100,18 +2106,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2123,18 +2129,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2146,18 +2152,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2169,18 +2175,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2192,18 +2198,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2215,18 +2221,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2238,18 +2244,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2261,18 +2267,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2284,18 +2290,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2307,18 +2313,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2330,18 +2336,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2353,18 +2359,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2376,18 +2382,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2399,18 +2405,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2422,18 +2428,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2445,18 +2451,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2468,18 +2474,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2491,18 +2497,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2514,18 +2520,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2537,18 +2543,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2560,18 +2566,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2583,18 +2589,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2606,18 +2612,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2629,18 +2635,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2652,18 +2658,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2675,18 +2681,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2698,18 +2704,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2721,18 +2727,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2744,18 +2750,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2767,18 +2773,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2790,18 +2796,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2813,18 +2819,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2836,18 +2842,18 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2859,47 +2865,47 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>60000</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="22" t="s">
+      <c r="B88" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F88" s="26">
         <v>50000</v>
       </c>
-      <c r="G88" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="G88" s="26">
+        <v>1500000</v>
+      </c>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="32"/>
+      <c r="C93" s="34"/>
       <c r="H93" s="1" t="s">
         <v>93</v>
       </c>
@@ -2907,10 +2913,10 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="32"/>
+      <c r="C94" s="34"/>
       <c r="H94" s="1" t="s">
         <v>94</v>
       </c>
